--- a/outputs-r202/o__Acidaminococcales.xlsx
+++ b/outputs-r202/o__Acidaminococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -645,6 +690,11 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>

--- a/outputs-r202/o__Acidaminococcales.xlsx
+++ b/outputs-r202/o__Acidaminococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,7 +625,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG720.fasta</t>
+          <t>RUG848.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -651,7 +651,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG848.fasta</t>
+          <t>hRUG887.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -669,32 +669,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>hRUG887.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
